--- a/hebrewOutputs/hebrew82Comperation_6_Common_alpha=0.3.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_6_Common_alpha=0.3.xlsx
@@ -97,6 +97,9 @@
     <t>כן.</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>נו אז יאללה נו אז יאללה,</t>
   </si>
   <si>
@@ -398,9 +401,6 @@
   </si>
   <si>
     <t>אני מבין</t>
-  </si>
-  <si>
-    <t>agree</t>
   </si>
   <si>
     <t>ואנחנו נתמודד איתו.</t>
@@ -864,7 +864,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -906,7 +906,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1018,7 +1018,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -1222,13 +1222,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
@@ -1267,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -1323,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1390,13 +1390,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
@@ -1502,13 +1502,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -1558,10 +1558,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
@@ -1628,13 +1628,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
@@ -1698,13 +1698,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -1754,10 +1754,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
@@ -1782,10 +1782,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -1824,10 +1824,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
         <v>92</v>
-      </c>
-      <c r="B73" t="s">
-        <v>91</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -1866,13 +1866,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -1880,10 +1880,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -1894,10 +1894,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -1908,10 +1908,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -1922,10 +1922,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
@@ -1950,10 +1950,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
         <v>19</v>
@@ -1964,10 +1964,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" t="s">
         <v>19</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -2020,10 +2020,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -2034,10 +2034,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
@@ -2104,10 +2104,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
         <v>19</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B96" t="s">
         <v>12</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B97" t="s">
         <v>19</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B101" t="s">
         <v>19</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
@@ -2258,10 +2258,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B103" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
@@ -2272,10 +2272,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B104" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
@@ -2289,7 +2289,7 @@
         <v>129</v>
       </c>
       <c r="B105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2303,7 +2303,7 @@
         <v>130</v>
       </c>
       <c r="B106" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
@@ -2317,7 +2317,7 @@
         <v>131</v>
       </c>
       <c r="B107" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -2331,10 +2331,10 @@
         <v>132</v>
       </c>
       <c r="B108" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
@@ -2359,7 +2359,7 @@
         <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C110" t="s">
         <v>19</v>
@@ -2387,7 +2387,7 @@
         <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
@@ -2401,7 +2401,7 @@
         <v>137</v>
       </c>
       <c r="B113" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
@@ -2415,7 +2415,7 @@
         <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -2432,7 +2432,7 @@
         <v>139</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D115" t="s">
         <v>10</v>
@@ -2513,7 +2513,7 @@
         <v>148</v>
       </c>
       <c r="B121" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -2527,7 +2527,7 @@
         <v>149</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
@@ -2541,10 +2541,10 @@
         <v>150</v>
       </c>
       <c r="B123" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
@@ -2569,7 +2569,7 @@
         <v>152</v>
       </c>
       <c r="B125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
@@ -2597,7 +2597,7 @@
         <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -2639,7 +2639,7 @@
         <v>157</v>
       </c>
       <c r="B130" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
